--- a/metridoc-grails-rid/grails-app/conf/spreadsheet/CDM_Bulkload_Schematic.xlsx
+++ b/metridoc-grails-rid/grails-app/conf/spreadsheet/CDM_Bulkload_Schematic.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="18195" windowHeight="11700"/>
+    <workbookView xWindow="500" yWindow="600" windowWidth="22060" windowHeight="21360"/>
   </bookViews>
   <sheets>
-    <sheet name="CDM" sheetId="4" r:id="rId1"/>
-    <sheet name="Dept" sheetId="6" r:id="rId2"/>
-    <sheet name="CDMService" sheetId="7" r:id="rId3"/>
+    <sheet name="Consultation" sheetId="4" r:id="rId1"/>
+    <sheet name="Instructional" sheetId="8" r:id="rId2"/>
+    <sheet name="Dept" sheetId="6" r:id="rId3"/>
+    <sheet name="CData" sheetId="7" r:id="rId4"/>
+    <sheet name="IData" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="CDMService">CDMService!$B$3:$B$23</definedName>
+    <definedName name="CDMService">CData!$B$3:$B$22</definedName>
     <definedName name="DeptList">Dept!$B$3:$B$223</definedName>
-    <definedName name="GOAL">CDMService!$E$3:$E$6</definedName>
+    <definedName name="EXPERTISE">IData!$H$3:$H$5</definedName>
+    <definedName name="GOAL">CData!$E$3:$E$14</definedName>
+    <definedName name="HSLService" localSheetId="1">#REF!</definedName>
     <definedName name="HSLService">#REF!</definedName>
-    <definedName name="MODE">CDMService!$C$3:$C$8</definedName>
-    <definedName name="USER">CDMService!$D$3:$D$10</definedName>
+    <definedName name="LOCATION">IData!$B$3:$B$5</definedName>
+    <definedName name="MODE">CData!$C$3:$C$8</definedName>
+    <definedName name="TYPE">IData!$D$3:$D$9</definedName>
+    <definedName name="USER">CData!$D$3:$D$10</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="344">
   <si>
     <t>Consultation Mode</t>
   </si>
@@ -101,9 +112,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>When completed, save the file in this form:  Pennkeynamemmddyyyyy (example: zucca01262012)</t>
-  </si>
-  <si>
     <t>CDM</t>
   </si>
   <si>
@@ -761,69 +769,15 @@
     <t>WRIT</t>
   </si>
   <si>
-    <t>Course Design</t>
-  </si>
-  <si>
-    <t>Research Assistance</t>
-  </si>
-  <si>
     <t>Acquisitions/Collections</t>
   </si>
   <si>
-    <t>Copyright Assistance for Author</t>
-  </si>
-  <si>
-    <t>Copyright Assistance for User</t>
-  </si>
-  <si>
-    <t>Correct an Operational or Service Error</t>
-  </si>
-  <si>
-    <t>Instructional Support</t>
-  </si>
-  <si>
     <t>Clinic</t>
   </si>
   <si>
     <t>Tour</t>
   </si>
   <si>
-    <t>Tech/Software Instruction</t>
-  </si>
-  <si>
-    <t>Search Instruction</t>
-  </si>
-  <si>
-    <t>Literature Search</t>
-  </si>
-  <si>
-    <t>Mobile Tech</t>
-  </si>
-  <si>
-    <t>Bibliometrics or Citation Metrics</t>
-  </si>
-  <si>
-    <t>Admin/Policy Questions</t>
-  </si>
-  <si>
-    <t>Citation Management Instruction</t>
-  </si>
-  <si>
-    <t>Scholarly Commons/Repository Service</t>
-  </si>
-  <si>
-    <t>Creating Faculty Profiles/Selected Works/VIVO</t>
-  </si>
-  <si>
-    <t>Coursera/MOOCs Support</t>
-  </si>
-  <si>
-    <t>Research Practice Support</t>
-  </si>
-  <si>
-    <t>Other (Please Indicate)</t>
-  </si>
-  <si>
     <t>CDMService</t>
   </si>
   <si>
@@ -948,13 +902,178 @@
   </si>
   <si>
     <t>Interact Occurrences</t>
+  </si>
+  <si>
+    <t>Use the second sheet for Instructional transactions</t>
+  </si>
+  <si>
+    <t>Course design</t>
+  </si>
+  <si>
+    <t>Research assistance</t>
+  </si>
+  <si>
+    <t>Copyright assistance for author</t>
+  </si>
+  <si>
+    <t>Copyright assistance for user</t>
+  </si>
+  <si>
+    <t>Correct an operational or service breakdown (incl. tech support)</t>
+  </si>
+  <si>
+    <t>Instructional support (apart from course design)</t>
+  </si>
+  <si>
+    <t>Tech/Software instruction</t>
+  </si>
+  <si>
+    <t>Search instruction</t>
+  </si>
+  <si>
+    <t>Literature search</t>
+  </si>
+  <si>
+    <t>Mobile technology</t>
+  </si>
+  <si>
+    <t>Bibliometrics or citation metrics</t>
+  </si>
+  <si>
+    <t>Admin/policy questions</t>
+  </si>
+  <si>
+    <t>Citation management instruction</t>
+  </si>
+  <si>
+    <t>Scholarly Commons/Repository Services</t>
+  </si>
+  <si>
+    <t>Creating faculty profiles/selected works/VIVO</t>
+  </si>
+  <si>
+    <t>Coursera/MOOCs support</t>
+  </si>
+  <si>
+    <t>Research practice support</t>
+  </si>
+  <si>
+    <t>Teaching/Presentation</t>
+  </si>
+  <si>
+    <t>Course Project</t>
+  </si>
+  <si>
+    <t>Course Creation</t>
+  </si>
+  <si>
+    <t>Research Paper</t>
+  </si>
+  <si>
+    <t>Research Article</t>
+  </si>
+  <si>
+    <t>Monograph</t>
+  </si>
+  <si>
+    <t>Data Management</t>
+  </si>
+  <si>
+    <t>Grant Proposal</t>
+  </si>
+  <si>
+    <t>Holocaust Studies</t>
+  </si>
+  <si>
+    <t>Outside Penn (please indicate)</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>Study Abroad Program</t>
+  </si>
+  <si>
+    <t>Villanova</t>
+  </si>
+  <si>
+    <t>Instructional EXCEL Submission Form - CDM</t>
+  </si>
+  <si>
+    <t>Use the first sheet for Consultation transactions</t>
+  </si>
+  <si>
+    <t>Date of Instruction (mm/dd/yyyy)</t>
+  </si>
+  <si>
+    <t>Instructor Pennkey</t>
+  </si>
+  <si>
+    <t>Total Attendance</t>
+  </si>
+  <si>
+    <t>Co Instructor Pennkey</t>
+  </si>
+  <si>
+    <t>Expertise</t>
+  </si>
+  <si>
+    <t>Session Description</t>
+  </si>
+  <si>
+    <t>Requestor</t>
+  </si>
+  <si>
+    <t>Session Type</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Sequence Name</t>
+  </si>
+  <si>
+    <t>Sequence Module Unit</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Out of Library</t>
+  </si>
+  <si>
+    <t>Goldstein Electronic Classroom</t>
+  </si>
+  <si>
+    <t>In-Class</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Instructional Materials (leave blank)</t>
+  </si>
+  <si>
+    <t>Expert (Subj Specialist)</t>
+  </si>
+  <si>
+    <t>General (librarian)</t>
+  </si>
+  <si>
+    <t>General (non-prof)</t>
+  </si>
+  <si>
+    <t>When completed, save the file in this form:  Pennkeyname_mmddyyyyy (example: zucca_01262012)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -996,12 +1115,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Bell Gothic Std Black"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1029,8 +1142,49 @@
       <name val="Bell Gothic Std Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Bell Gothic Std Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bell Gothic Std Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bell Gothic Std Light"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1195,11 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1082,37 +1241,68 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1136,25 +1326,64 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="25" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="32">
+    <cellStyle name="Bad" xfId="25" builtinId="27"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1457,43 +1686,45 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="27.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="23.25">
+    <row r="1" spans="1:20" ht="25">
       <c r="A1" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18">
+      <c r="A2" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18">
+      <c r="A3" s="23" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="13" t="s">
+    <row r="4" spans="1:20" ht="19" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16">
+      <c r="B6" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="6" spans="1:20" ht="15.75">
-      <c r="B6" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>7</v>
@@ -1504,12 +1735,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15">
+    <row r="8" spans="1:20" ht="16">
       <c r="B8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="22" t="s">
-        <v>290</v>
+      <c r="C8" s="21" t="s">
+        <v>271</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>9</v>
@@ -1521,12 +1752,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15">
+    <row r="10" spans="1:20" ht="16">
       <c r="B10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>290</v>
+      <c r="C10" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>11</v>
@@ -1537,7 +1768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15.75">
+    <row r="12" spans="1:20" ht="16">
       <c r="B12" s="5" t="s">
         <v>0</v>
       </c>
@@ -1551,7 +1782,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15.75">
+    <row r="14" spans="1:20" ht="16">
       <c r="B14" s="5" t="s">
         <v>2</v>
       </c>
@@ -1566,7 +1797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="15.75">
+    <row r="16" spans="1:20" ht="16">
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
@@ -1580,133 +1811,133 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="15">
+    <row r="18" spans="1:20" ht="16">
       <c r="B18" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="15">
+      <c r="C18" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="16">
       <c r="B20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15">
+      <c r="C20" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="16">
       <c r="B21" s="6"/>
-      <c r="C21" s="23"/>
-    </row>
-    <row r="22" spans="1:20" ht="15">
+      <c r="C21" s="22"/>
+    </row>
+    <row r="22" spans="1:20" ht="16">
       <c r="B22" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="C22" s="23"/>
-    </row>
-    <row r="24" spans="1:20" ht="15">
+        <v>283</v>
+      </c>
+      <c r="C22" s="22"/>
+    </row>
+    <row r="24" spans="1:20" ht="16">
       <c r="B24" s="6" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="C24" s="9"/>
     </row>
     <row r="26" spans="1:20" ht="18">
       <c r="A26" s="3"/>
       <c r="B26" s="6" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
       <c r="C26" s="9"/>
     </row>
-    <row r="27" spans="1:20" ht="15">
+    <row r="27" spans="1:20" ht="16">
       <c r="B27" s="6"/>
     </row>
-    <row r="28" spans="1:20" ht="15">
+    <row r="28" spans="1:20" ht="16">
       <c r="B28" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="15">
+        <v>288</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="16">
       <c r="B30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="15">
+      <c r="C30" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="16">
       <c r="B31" s="6"/>
     </row>
-    <row r="32" spans="1:20" ht="15">
+    <row r="32" spans="1:20" ht="16">
       <c r="B32" s="6" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="C32" s="9"/>
     </row>
-    <row r="33" spans="2:4" ht="15">
+    <row r="33" spans="2:4" ht="16">
       <c r="B33" s="6"/>
     </row>
-    <row r="34" spans="2:4" ht="15">
+    <row r="34" spans="2:4" ht="16">
       <c r="B34" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>290</v>
+      <c r="C34" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="2:4" ht="15">
+    <row r="35" spans="2:4" ht="16">
       <c r="B35" s="6"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="2:4" ht="15">
+    <row r="36" spans="2:4" ht="16">
       <c r="B36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>290</v>
+      <c r="C36" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="2:4" ht="15">
+    <row r="37" spans="2:4" ht="16">
       <c r="B37" s="6"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="2:4" ht="15">
+    <row r="38" spans="2:4" ht="16">
       <c r="B38" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="2:4" ht="15">
+    <row r="39" spans="2:4" ht="16">
       <c r="B39" s="6"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="2:4" ht="15">
+    <row r="40" spans="2:4" ht="16">
       <c r="B40" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>290</v>
+      <c r="C40" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="42" spans="2:4" ht="15">
+    <row r="42" spans="2:4" ht="16">
       <c r="B42" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>290</v>
+      <c r="C42" s="20" t="s">
+        <v>271</v>
       </c>
       <c r="D42" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations xWindow="513" yWindow="443" count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Report type" prompt="Report type" sqref="E3">
       <formula1>"cd, de, ef"</formula1>
     </dataValidation>
@@ -1730,17 +1961,20 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xWindow="513" yWindow="443" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>CDMService!$F$3:$F$16</xm:f>
+            <xm:f>CData!$F$3:$F$16</xm:f>
           </x14:formula1>
           <xm:sqref>C38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -1748,1364 +1982,1808 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B223"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B4" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B5" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B6" s="15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B7" s="15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B8" s="15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B9" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B10" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B11" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B12" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B13" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B14" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B15" s="15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B16" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B17" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B18" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B19" s="15" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B20" s="15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B21" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B22" s="15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B23" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B24" s="15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B25" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B26" s="15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B27" s="15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B28" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B29" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B30" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B31" s="15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B32" s="15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B33" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B34" s="15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B35" s="15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B36" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B37" s="15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B38" s="15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B39" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B40" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B41" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B42" s="15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="43" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B43" s="15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B44" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B45" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B46" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B47" s="15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B48" s="15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B49" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B50" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B51" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B52" s="15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B53" s="15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B54" s="15" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B55" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B56" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B57" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B58" s="15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B59" s="15" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B60" s="15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B61" s="15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B62" s="15" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B63" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B64" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B65" s="15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B66" s="15" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B67" s="15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B68" s="15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B69" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B70" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B71" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B72" s="15" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B73" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B74" s="15" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B75" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B76" s="15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B77" s="15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B78" s="15" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B79" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B80" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B81" s="15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B82" s="15" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B83" s="15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B84" s="15" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B85" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B86" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B87" s="15" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B88" s="15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B89" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B90" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B91" s="15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B92" s="15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B93" s="15" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B94" s="15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B95" s="15" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B96" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B97" s="15" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B98" s="15" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B99" s="15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B100" s="15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="101" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B101" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B102" s="15" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B103" s="15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B104" s="15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B105" s="15" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B106" s="15" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="107" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B107" s="15" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B108" s="15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="109" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B109" s="15" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B110" s="15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B111" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B112" s="15" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B113" s="15" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="114" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B114" s="15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="115" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B115" s="15" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="116" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B116" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="117" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B117" s="15" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="118" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B118" s="15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B119" s="15" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="120" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B120" s="15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B121" s="15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B122" s="15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="123" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B123" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="124" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B124" s="15" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B125" s="15" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="126" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B126" s="15" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="127" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B127" s="15" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="128" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B128" s="15" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="129" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B129" s="15" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="130" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B130" s="15" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="131" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B131" s="15" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="132" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B132" s="15" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="133" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B133" s="15" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="134" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B134" s="15" t="s">
+    <row r="1" spans="1:20" ht="25">
+      <c r="A1" s="4" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="18">
+      <c r="A2" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18">
+      <c r="A3" s="23" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="25" customHeight="1">
+      <c r="A4" s="24" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16">
+      <c r="B6" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="T7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16">
+      <c r="B8" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="B9" s="8"/>
+      <c r="T9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="16">
+      <c r="B10" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="T11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="16">
+      <c r="B12" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="16">
+      <c r="B14" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="T14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="T15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="16">
+      <c r="B16" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="T16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="18">
+      <c r="A17" s="3"/>
+      <c r="T17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B135" s="15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="136" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B136" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="137" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B137" s="15" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="138" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B138" s="15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="139" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B139" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="140" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B140" s="15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="141" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B141" s="15" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B142" s="15" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="143" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B143" s="15" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B144" s="15" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B145" s="15" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B146" s="15" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="147" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B147" s="15" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="148" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B148" s="15" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B149" s="15" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="150" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B150" s="15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B151" s="15" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="152" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B152" s="15" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B153" s="15" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="154" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B154" s="15" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B155" s="15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B156" s="15" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B157" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B158" s="15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B159" s="15" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B160" s="15" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B161" s="15" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B162" s="15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B163" s="15" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B164" s="15" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B165" s="15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B166" s="15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B167" s="15" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B168" s="15" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B169" s="15" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B170" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B171" s="15" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B172" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B173" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B174" s="15" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B175" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B176" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B177" s="15" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="178" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B178" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="179" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B179" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="180" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B180" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B181" s="15" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B182" s="15" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B183" s="15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B184" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B185" s="15" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B186" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B187" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B188" s="15" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B189" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B190" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B191" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B192" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="193" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B193" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="194" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B194" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="195" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B195" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B196" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B197" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B198" s="15" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="199" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B199" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B200" s="15" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B201" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B202" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B203" s="15" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B204" s="15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B205" s="15" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B206" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B207" s="15" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B208" s="15" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B209" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B210" s="15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B211" s="15" t="s">
+    <row r="18" spans="1:20" ht="16">
+      <c r="B18" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="T18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="T19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B212" s="15" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B213" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B214" s="15" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B215" s="15" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B216" s="15" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B217" s="15" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B218" s="15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B219" s="15" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B220" s="15" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B221" s="15" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B222" s="15" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2" ht="16.5" thickBot="1">
-      <c r="B223" s="15" t="s">
-        <v>244</v>
-      </c>
+    <row r="20" spans="1:20" ht="16">
+      <c r="B20" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="16">
+      <c r="B22" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="16">
+      <c r="B23" s="6"/>
+      <c r="C23" s="22"/>
+    </row>
+    <row r="24" spans="1:20" ht="16">
+      <c r="B24" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="22"/>
+    </row>
+    <row r="26" spans="1:20" ht="16">
+      <c r="B26" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="28" spans="1:20" ht="18">
+      <c r="A28" s="3"/>
+      <c r="B28" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="1:20" ht="16">
+      <c r="B29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" ht="16">
+      <c r="B30" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" ht="16">
+      <c r="B32" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="16">
+      <c r="B34" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="16">
+      <c r="B36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="16">
+      <c r="B37" s="6"/>
+    </row>
+    <row r="38" spans="2:4" ht="16">
+      <c r="B38" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="C38" s="9"/>
+    </row>
+    <row r="39" spans="2:4" ht="16">
+      <c r="B39" s="6"/>
+    </row>
+    <row r="40" spans="2:4" ht="16">
+      <c r="B40" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="2:4" ht="16">
+      <c r="B41" s="6"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="2:4" ht="16">
+      <c r="B42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="2:4" ht="16">
+      <c r="B43" s="6"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="2:4" ht="16">
+      <c r="B44" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C44" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="2:4" ht="16">
+      <c r="B45" s="6"/>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="2:4" ht="16">
+      <c r="B46" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="C46" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="48" spans="2:4" ht="16">
+      <c r="B48" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C48" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D48" s="1"/>
     </row>
   </sheetData>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C38">
+      <formula1>DeptList</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="User Affiliation" prompt="Select One" sqref="C28">
+      <formula1>"SAS, SEAS, Wharton, GSE, Vet, Nursing, Med, Dental, SP2, Design, UPHS, CHOP, Annenberg, Law, Penn Other (Please Indicate), Outside Penn (Please Indicate)"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Instructor Expertise" prompt="Select one" sqref="C26">
+      <formula1>EXPERTISE</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Location" prompt="Select One" sqref="C18">
+      <formula1>LOCATION</formula1>
+    </dataValidation>
+    <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="incorrect value" promptTitle="Session Type" prompt="Select one" sqref="C14">
+      <formula1>TYPE</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Report type" prompt="Report type" sqref="E3">
+      <formula1>"cd, de, ef"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F23"/>
+  <dimension ref="B2:B223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="15" thickBot="1"/>
+    <row r="3" spans="2:2" ht="16" thickBot="1">
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="16" thickBot="1">
+      <c r="B4" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" ht="16" thickBot="1">
+      <c r="B5" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" ht="16" thickBot="1">
+      <c r="B6" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" ht="16" thickBot="1">
+      <c r="B7" s="14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="16" thickBot="1">
+      <c r="B8" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" ht="16" thickBot="1">
+      <c r="B9" s="14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="16" thickBot="1">
+      <c r="B10" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="16" thickBot="1">
+      <c r="B11" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" ht="16" thickBot="1">
+      <c r="B12" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="16" thickBot="1">
+      <c r="B13" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="16" thickBot="1">
+      <c r="B14" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="16" thickBot="1">
+      <c r="B15" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" ht="16" thickBot="1">
+      <c r="B16" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="16" thickBot="1">
+      <c r="B17" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="16" thickBot="1">
+      <c r="B18" s="14" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="16" thickBot="1">
+      <c r="B19" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="16" thickBot="1">
+      <c r="B20" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="16" thickBot="1">
+      <c r="B21" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="16" thickBot="1">
+      <c r="B22" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="16" thickBot="1">
+      <c r="B23" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="16" thickBot="1">
+      <c r="B24" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="16" thickBot="1">
+      <c r="B25" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="16" thickBot="1">
+      <c r="B26" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" ht="16" thickBot="1">
+      <c r="B27" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="16" thickBot="1">
+      <c r="B28" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" ht="16" thickBot="1">
+      <c r="B29" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="16" thickBot="1">
+      <c r="B30" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" ht="16" thickBot="1">
+      <c r="B31" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="16" thickBot="1">
+      <c r="B32" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="16" thickBot="1">
+      <c r="B33" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="16" thickBot="1">
+      <c r="B34" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" ht="16" thickBot="1">
+      <c r="B35" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" ht="16" thickBot="1">
+      <c r="B36" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="16" thickBot="1">
+      <c r="B37" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" ht="16" thickBot="1">
+      <c r="B38" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" ht="16" thickBot="1">
+      <c r="B39" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" ht="16" thickBot="1">
+      <c r="B40" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" ht="16" thickBot="1">
+      <c r="B41" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" ht="16" thickBot="1">
+      <c r="B42" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="16" thickBot="1">
+      <c r="B43" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" ht="16" thickBot="1">
+      <c r="B44" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" ht="16" thickBot="1">
+      <c r="B45" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" ht="16" thickBot="1">
+      <c r="B46" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" ht="16" thickBot="1">
+      <c r="B47" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" ht="16" thickBot="1">
+      <c r="B48" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" ht="16" thickBot="1">
+      <c r="B49" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" ht="16" thickBot="1">
+      <c r="B50" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="16" thickBot="1">
+      <c r="B51" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" ht="16" thickBot="1">
+      <c r="B52" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="16" thickBot="1">
+      <c r="B53" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" ht="16" thickBot="1">
+      <c r="B54" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" ht="16" thickBot="1">
+      <c r="B55" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="16" thickBot="1">
+      <c r="B56" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" ht="16" thickBot="1">
+      <c r="B57" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="16" thickBot="1">
+      <c r="B58" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" ht="16" thickBot="1">
+      <c r="B59" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" ht="16" thickBot="1">
+      <c r="B60" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" ht="16" thickBot="1">
+      <c r="B61" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" ht="16" thickBot="1">
+      <c r="B62" s="14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" ht="16" thickBot="1">
+      <c r="B63" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="16" thickBot="1">
+      <c r="B64" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" ht="16" thickBot="1">
+      <c r="B65" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" ht="16" thickBot="1">
+      <c r="B66" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" ht="16" thickBot="1">
+      <c r="B67" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" ht="16" thickBot="1">
+      <c r="B68" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="16" thickBot="1">
+      <c r="B69" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="16" thickBot="1">
+      <c r="B70" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" ht="16" thickBot="1">
+      <c r="B71" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" ht="16" thickBot="1">
+      <c r="B72" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="16" thickBot="1">
+      <c r="B73" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" ht="16" thickBot="1">
+      <c r="B74" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" ht="16" thickBot="1">
+      <c r="B75" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" ht="16" thickBot="1">
+      <c r="B76" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" ht="16" thickBot="1">
+      <c r="B77" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" ht="16" thickBot="1">
+      <c r="B78" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" ht="16" thickBot="1">
+      <c r="B79" s="14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" ht="16" thickBot="1">
+      <c r="B80" s="14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="16" thickBot="1">
+      <c r="B81" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="16" thickBot="1">
+      <c r="B82" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="16" thickBot="1">
+      <c r="B83" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="16" thickBot="1">
+      <c r="B84" s="14" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" ht="16" thickBot="1">
+      <c r="B85" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" ht="16" thickBot="1">
+      <c r="B86" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" ht="16" thickBot="1">
+      <c r="B87" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="16" thickBot="1">
+      <c r="B88" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" ht="16" thickBot="1">
+      <c r="B89" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" ht="16" thickBot="1">
+      <c r="B90" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" ht="16" thickBot="1">
+      <c r="B91" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" ht="16" thickBot="1">
+      <c r="B92" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="16" thickBot="1">
+      <c r="B93" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" ht="16" thickBot="1">
+      <c r="B94" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" ht="16" thickBot="1">
+      <c r="B95" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" ht="16" thickBot="1">
+      <c r="B96" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" ht="16" thickBot="1">
+      <c r="B97" s="14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" ht="16" thickBot="1">
+      <c r="B98" s="14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" ht="16" thickBot="1">
+      <c r="B99" s="14" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="16" thickBot="1">
+      <c r="B100" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" ht="16" thickBot="1">
+      <c r="B101" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" ht="16" thickBot="1">
+      <c r="B102" s="14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" ht="16" thickBot="1">
+      <c r="B103" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" ht="16" thickBot="1">
+      <c r="B104" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="16" thickBot="1">
+      <c r="B105" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" ht="16" thickBot="1">
+      <c r="B106" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" ht="16" thickBot="1">
+      <c r="B107" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" ht="16" thickBot="1">
+      <c r="B108" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="16" thickBot="1">
+      <c r="B109" s="14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" ht="16" thickBot="1">
+      <c r="B110" s="14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" ht="16" thickBot="1">
+      <c r="B111" s="14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" ht="16" thickBot="1">
+      <c r="B112" s="14" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="16" thickBot="1">
+      <c r="B113" s="14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" ht="16" thickBot="1">
+      <c r="B114" s="14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" ht="16" thickBot="1">
+      <c r="B115" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" ht="16" thickBot="1">
+      <c r="B116" s="14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" ht="16" thickBot="1">
+      <c r="B117" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" ht="16" thickBot="1">
+      <c r="B118" s="14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="16" thickBot="1">
+      <c r="B119" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" ht="16" thickBot="1">
+      <c r="B120" s="14" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" ht="16" thickBot="1">
+      <c r="B121" s="14" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" ht="16" thickBot="1">
+      <c r="B122" s="14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" ht="16" thickBot="1">
+      <c r="B123" s="14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" ht="16" thickBot="1">
+      <c r="B124" s="14" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" ht="16" thickBot="1">
+      <c r="B125" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" ht="16" thickBot="1">
+      <c r="B126" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="16" thickBot="1">
+      <c r="B127" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" ht="16" thickBot="1">
+      <c r="B128" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" ht="16" thickBot="1">
+      <c r="B129" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" ht="16" thickBot="1">
+      <c r="B130" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="16" thickBot="1">
+      <c r="B131" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" ht="16" thickBot="1">
+      <c r="B132" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" ht="16" thickBot="1">
+      <c r="B133" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" ht="16" thickBot="1">
+      <c r="B134" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" ht="16" thickBot="1">
+      <c r="B135" s="14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" ht="16" thickBot="1">
+      <c r="B136" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="16" thickBot="1">
+      <c r="B137" s="14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" ht="16" thickBot="1">
+      <c r="B138" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" ht="16" thickBot="1">
+      <c r="B139" s="14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" ht="16" thickBot="1">
+      <c r="B140" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" ht="16" thickBot="1">
+      <c r="B141" s="14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" ht="16" thickBot="1">
+      <c r="B142" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="16" thickBot="1">
+      <c r="B143" s="14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" ht="16" thickBot="1">
+      <c r="B144" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" ht="16" thickBot="1">
+      <c r="B145" s="14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" ht="16" thickBot="1">
+      <c r="B146" s="14" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" ht="16" thickBot="1">
+      <c r="B147" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" ht="16" thickBot="1">
+      <c r="B148" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" ht="16" thickBot="1">
+      <c r="B149" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2" ht="16" thickBot="1">
+      <c r="B150" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2" ht="16" thickBot="1">
+      <c r="B151" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2" ht="16" thickBot="1">
+      <c r="B152" s="14" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2" ht="16" thickBot="1">
+      <c r="B153" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2" ht="16" thickBot="1">
+      <c r="B154" s="14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2" ht="16" thickBot="1">
+      <c r="B155" s="14" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" ht="16" thickBot="1">
+      <c r="B156" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2" ht="16" thickBot="1">
+      <c r="B157" s="14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2" ht="16" thickBot="1">
+      <c r="B158" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2" ht="16" thickBot="1">
+      <c r="B159" s="14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2" ht="16" thickBot="1">
+      <c r="B160" s="14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" ht="16" thickBot="1">
+      <c r="B161" s="14" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" ht="16" thickBot="1">
+      <c r="B162" s="14" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" ht="16" thickBot="1">
+      <c r="B163" s="14" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" ht="16" thickBot="1">
+      <c r="B164" s="14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" ht="16" thickBot="1">
+      <c r="B165" s="14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" ht="16" thickBot="1">
+      <c r="B166" s="14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" ht="16" thickBot="1">
+      <c r="B167" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2" ht="16" thickBot="1">
+      <c r="B168" s="14" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2" ht="16" thickBot="1">
+      <c r="B169" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2" ht="16" thickBot="1">
+      <c r="B170" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2" ht="16" thickBot="1">
+      <c r="B171" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2" ht="16" thickBot="1">
+      <c r="B172" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2" ht="16" thickBot="1">
+      <c r="B173" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2" ht="16" thickBot="1">
+      <c r="B174" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2" ht="16" thickBot="1">
+      <c r="B175" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2" ht="16" thickBot="1">
+      <c r="B176" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2" ht="16" thickBot="1">
+      <c r="B177" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2" ht="16" thickBot="1">
+      <c r="B178" s="14" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2" ht="16" thickBot="1">
+      <c r="B179" s="14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2" ht="16" thickBot="1">
+      <c r="B180" s="14" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2" ht="16" thickBot="1">
+      <c r="B181" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2" ht="16" thickBot="1">
+      <c r="B182" s="14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="183" spans="2:2" ht="16" thickBot="1">
+      <c r="B183" s="14" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="184" spans="2:2" ht="16" thickBot="1">
+      <c r="B184" s="14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" ht="16" thickBot="1">
+      <c r="B185" s="14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="186" spans="2:2" ht="16" thickBot="1">
+      <c r="B186" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="187" spans="2:2" ht="16" thickBot="1">
+      <c r="B187" s="14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="188" spans="2:2" ht="16" thickBot="1">
+      <c r="B188" s="14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2" ht="16" thickBot="1">
+      <c r="B189" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2" ht="16" thickBot="1">
+      <c r="B190" s="14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2" ht="16" thickBot="1">
+      <c r="B191" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2" ht="16" thickBot="1">
+      <c r="B192" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="193" spans="2:2" ht="16" thickBot="1">
+      <c r="B193" s="14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" ht="16" thickBot="1">
+      <c r="B194" s="14" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" ht="16" thickBot="1">
+      <c r="B195" s="14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" ht="16" thickBot="1">
+      <c r="B196" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" ht="16" thickBot="1">
+      <c r="B197" s="14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" ht="16" thickBot="1">
+      <c r="B198" s="14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" ht="16" thickBot="1">
+      <c r="B199" s="14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" ht="16" thickBot="1">
+      <c r="B200" s="14" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" ht="16" thickBot="1">
+      <c r="B201" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" ht="16" thickBot="1">
+      <c r="B202" s="14" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2" ht="16" thickBot="1">
+      <c r="B203" s="14" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="204" spans="2:2" ht="16" thickBot="1">
+      <c r="B204" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" ht="16" thickBot="1">
+      <c r="B205" s="14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" ht="16" thickBot="1">
+      <c r="B206" s="14" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2" ht="16" thickBot="1">
+      <c r="B207" s="14" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" ht="16" thickBot="1">
+      <c r="B208" s="14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" ht="16" thickBot="1">
+      <c r="B209" s="14" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" ht="16" thickBot="1">
+      <c r="B210" s="14" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" ht="16" thickBot="1">
+      <c r="B211" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" ht="16" thickBot="1">
+      <c r="B212" s="14" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2" ht="16" thickBot="1">
+      <c r="B213" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2" ht="16" thickBot="1">
+      <c r="B214" s="14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2" ht="16" thickBot="1">
+      <c r="B215" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" ht="16" thickBot="1">
+      <c r="B216" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" ht="16" thickBot="1">
+      <c r="B217" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" ht="16" thickBot="1">
+      <c r="B218" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" ht="16" thickBot="1">
+      <c r="B219" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2" ht="16" thickBot="1">
+      <c r="B220" s="14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" ht="16" thickBot="1">
+      <c r="B221" s="14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" ht="16" thickBot="1">
+      <c r="B222" s="14" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" ht="16" thickBot="1">
+      <c r="B223" s="14" t="s">
+        <v>243</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="39.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>301</v>
+      <c r="B2" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="2:6">
       <c r="B3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>284</v>
+        <v>252</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>309</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" t="s">
-        <v>246</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>285</v>
+        <v>254</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>308</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>286</v>
+        <v>256</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>313</v>
       </c>
       <c r="F5" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>287</v>
+        <v>258</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>267</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>260</v>
+      </c>
+      <c r="E7" t="s">
+        <v>314</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="C8" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>281</v>
+        <v>262</v>
+      </c>
+      <c r="E8" t="s">
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>263</v>
+      </c>
+      <c r="E9" t="s">
+        <v>266</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="D10" t="s">
-        <v>283</v>
+        <v>264</v>
+      </c>
+      <c r="E10" t="s">
+        <v>312</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" t="s">
-        <v>253</v>
+        <v>290</v>
+      </c>
+      <c r="E11" t="s">
+        <v>311</v>
       </c>
       <c r="F11" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" t="s">
-        <v>254</v>
+        <v>305</v>
+      </c>
+      <c r="E12" t="s">
+        <v>310</v>
       </c>
       <c r="F12" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" t="s">
-        <v>255</v>
+        <v>304</v>
+      </c>
+      <c r="E13" t="s">
+        <v>265</v>
       </c>
       <c r="F13" t="s">
-        <v>298</v>
+        <v>316</v>
       </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" t="s">
-        <v>256</v>
+        <v>295</v>
+      </c>
+      <c r="E14" t="s">
+        <v>307</v>
       </c>
       <c r="F14" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="2:6">
       <c r="B15" t="s">
-        <v>257</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:6">
       <c r="B16" t="s">
-        <v>258</v>
+        <v>299</v>
       </c>
       <c r="F16" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
+        <v>291</v>
+      </c>
+      <c r="F17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
+        <v>306</v>
+      </c>
+      <c r="F18" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
+        <v>303</v>
+      </c>
+      <c r="F19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
+        <v>297</v>
+      </c>
+      <c r="F20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
+        <v>296</v>
+      </c>
+      <c r="F21" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="2:8">
+      <c r="B2" t="s">
+        <v>330</v>
+      </c>
+      <c r="D2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" t="s">
+        <v>333</v>
+      </c>
+      <c r="H2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="H4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="D6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="D7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="D8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="D9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>